--- a/scrnaseq_studies_info.xlsx
+++ b/scrnaseq_studies_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/t_n_phung_vu_nl/Documents/Documents/ctg/projects/gwas_celltype_atlas/code/rshiny_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/t_n_phung_vu_nl/Documents/Documents/ctg/codes/scrna_category_rshiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{9066FC71-7329-44C3-93AC-08DBFD61211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75318C51-7420-4B59-9694-DB78E80E4DEC}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{9066FC71-7329-44C3-93AC-08DBFD61211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C3333EB-37E6-4530-86C1-59926CC519C9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{96A251ED-384B-4728-9E60-91C3C5764075}"/>
   </bookViews>
@@ -1240,7 +1240,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
